--- a/profili/osvetljitev_celje.xlsx
+++ b/profili/osvetljitev_celje.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomaž Dolinar\Documents\GitHub\ELES_polnilnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA80A44-5942-41ED-8F5B-B26F90180665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA262E6-3E32-488C-92FC-CAC4F9D590CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="8902" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,9 +46,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +60,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,14 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -107,6 +129,5257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$280</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36526.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36526.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36526.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36526.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36526.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36526.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36526.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36526.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36526.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36526.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36526.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36526.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36526.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36526.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36526.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36526.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36526.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36526.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36526.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36526.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36526.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36526.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36526.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36527</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36527.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36527.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36527.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36527.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36527.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36527.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36527.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36527.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36527.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36527.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36527.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36527.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36527.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36527.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36527.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36527.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36527.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36527.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36527.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36527.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36527.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36527.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36527.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36528</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36528.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36528.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36528.125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36528.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36528.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36528.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36528.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36528.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36528.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36528.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36528.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36528.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36528.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36528.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36528.625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36528.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36528.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36528.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36528.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36528.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36528.875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36528.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36528.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36529</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36529.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36529.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36529.125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36529.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36529.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36529.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36529.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36529.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36529.375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36529.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36529.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36529.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>36529.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>36529.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36529.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36529.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36529.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36529.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36529.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36529.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36529.875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36529.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36529.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36530</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36530.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>36530.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36530.125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36530.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36530.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36530.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36530.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>36530.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>36530.375</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>36530.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36530.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36530.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36530.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36530.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36530.625</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>36530.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36530.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36530.75</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>36530.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36530.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>36530.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>36530.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>36530.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36531</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>36531.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>36531.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>36531.125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36531.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36531.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36531.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36531.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36531.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36531.375</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36531.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36531.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>36531.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>36531.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>36531.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>36531.625</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>36531.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>36531.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>36531.75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>36531.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>36531.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>36531.875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36531.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>36531.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36532</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>36532.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>36532.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>36532.125</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>36532.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>36532.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>36532.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>36532.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>36532.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>36532.375</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36532.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36532.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36532.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36532.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36532.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36532.625</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36532.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36532.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36532.75</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36532.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36532.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>36532.875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36532.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>36532.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>36533</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>36533.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>36533.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>36533.125</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>36533.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>36533.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36533.25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>36533.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>36533.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>36533.375</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>36533.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>36533.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>36533.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36533.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>36533.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36533.625</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>36533.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>36533.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>36533.75</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>36533.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>36533.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>36533.875</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>36533.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>36533.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>36534</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>36534.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>36534.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>36534.125</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>36534.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>36534.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>36534.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>36534.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>36534.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>36534.375</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>36534.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>36534.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>36534.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>36534.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>36534.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>36534.625</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>36534.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>36534.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>36534.75</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>36534.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>36534.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>36534.875</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>36534.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>36534.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36535</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>36535.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>36535.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>36535.125</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>36535.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>36535.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>36535.25</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>36535.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>36535.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>36535.375</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>36535.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>36535.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>36535.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>36535.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>36535.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36535.625</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>36535.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>36535.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36535.75</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>36535.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>36535.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>36535.875</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>36535.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>36535.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>36536.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>36536.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>36536.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>36536.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>36536.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>36536.25</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>36536.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36536.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>36536.375</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>36536.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>36536.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>36536.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>36536.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36536.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>36536.625</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>36536.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>36536.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>36536.75</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>36536.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>36536.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>36536.875</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>36536.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>36536.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36537</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36537.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>36537.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>36537.125</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>36537.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>36537.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>36537.25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>36537.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>36537.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>36537.375</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>36537.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>36537.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>36537.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>36537.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>36537.583333333343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AFE-4F0C-AAE2-642B32E44AE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$280</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36526.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36526.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36526.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36526.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36526.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36526.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36526.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36526.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36526.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36526.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36526.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36526.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36526.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36526.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36526.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36526.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36526.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36526.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36526.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36526.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36526.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36526.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36526.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36527</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36527.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36527.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36527.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36527.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36527.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36527.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36527.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36527.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36527.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36527.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36527.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36527.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36527.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36527.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36527.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36527.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36527.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36527.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36527.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36527.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36527.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36527.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36527.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36528</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36528.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36528.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36528.125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36528.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36528.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36528.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36528.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36528.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36528.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36528.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36528.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36528.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36528.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36528.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36528.625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36528.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36528.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36528.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36528.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36528.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36528.875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36528.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36528.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36529</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36529.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36529.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36529.125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36529.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36529.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36529.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36529.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36529.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36529.375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36529.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36529.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36529.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>36529.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>36529.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36529.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36529.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36529.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36529.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36529.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36529.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36529.875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36529.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36529.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36530</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36530.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>36530.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36530.125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36530.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36530.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36530.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36530.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>36530.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>36530.375</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>36530.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36530.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36530.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36530.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36530.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36530.625</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>36530.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36530.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36530.75</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>36530.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36530.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>36530.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>36530.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>36530.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36531</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>36531.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>36531.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>36531.125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36531.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36531.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36531.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36531.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36531.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36531.375</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36531.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36531.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>36531.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>36531.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>36531.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>36531.625</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>36531.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>36531.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>36531.75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>36531.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>36531.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>36531.875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36531.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>36531.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36532</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>36532.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>36532.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>36532.125</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>36532.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>36532.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>36532.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>36532.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>36532.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>36532.375</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36532.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36532.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36532.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36532.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36532.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36532.625</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36532.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36532.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36532.75</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36532.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36532.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>36532.875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36532.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>36532.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>36533</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>36533.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>36533.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>36533.125</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>36533.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>36533.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36533.25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>36533.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>36533.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>36533.375</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>36533.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>36533.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>36533.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36533.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>36533.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36533.625</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>36533.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>36533.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>36533.75</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>36533.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>36533.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>36533.875</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>36533.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>36533.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>36534</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>36534.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>36534.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>36534.125</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>36534.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>36534.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>36534.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>36534.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>36534.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>36534.375</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>36534.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>36534.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>36534.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>36534.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>36534.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>36534.625</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>36534.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>36534.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>36534.75</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>36534.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>36534.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>36534.875</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>36534.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>36534.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36535</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>36535.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>36535.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>36535.125</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>36535.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>36535.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>36535.25</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>36535.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>36535.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>36535.375</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>36535.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>36535.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>36535.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>36535.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>36535.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36535.625</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>36535.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>36535.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36535.75</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>36535.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>36535.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>36535.875</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>36535.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>36535.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>36536.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>36536.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>36536.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>36536.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>36536.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>36536.25</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>36536.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36536.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>36536.375</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>36536.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>36536.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>36536.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>36536.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36536.583333333343</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>36536.625</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>36536.666666666657</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>36536.708333333343</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>36536.75</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>36536.791666666657</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>36536.833333333343</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>36536.875</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>36536.916666666657</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>36536.958333333343</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36537</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36537.041666666657</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>36537.083333333343</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>36537.125</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>36537.166666666657</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>36537.208333333343</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>36537.25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>36537.291666666657</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>36537.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>36537.375</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>36537.416666666657</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>36537.458333333343</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>36537.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>36537.541666666657</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>36537.583333333343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5AFE-4F0C-AAE2-642B32E44AE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106871935"/>
+        <c:axId val="106870495"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$280</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                      <c:ptCount val="279"/>
+                      <c:pt idx="0">
+                        <c:v>36526</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36526.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>36526.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>36526.125</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36526.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>36526.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36526.25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36526.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36526.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>36526.375</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>36526.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>36526.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36526.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36526.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36526.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>36526.625</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>36526.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>36526.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36526.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>36526.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>36526.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>36526.875</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>36526.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>36526.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>36527</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>36527.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>36527.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>36527.125</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>36527.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>36527.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>36527.25</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>36527.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>36527.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>36527.375</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>36527.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36527.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36527.5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>36527.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>36527.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>36527.625</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>36527.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>36527.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>36527.75</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>36527.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>36527.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>36527.875</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>36527.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>36527.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>36528</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>36528.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>36528.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>36528.125</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>36528.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>36528.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>36528.25</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>36528.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>36528.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>36528.375</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>36528.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>36528.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>36528.5</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>36528.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>36528.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>36528.625</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>36528.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>36528.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>36528.75</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>36528.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>36528.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>36528.875</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>36528.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>36528.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>36529</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>36529.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>36529.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>36529.125</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>36529.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>36529.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>36529.25</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>36529.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>36529.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>36529.375</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>36529.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>36529.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>36529.5</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>36529.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>36529.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>36529.625</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>36529.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>36529.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>36529.75</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>36529.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>36529.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>36529.875</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>36529.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>36529.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>36530</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>36530.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>36530.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>36530.125</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>36530.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>36530.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>36530.25</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>36530.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>36530.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>36530.375</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>36530.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>36530.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>36530.5</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>36530.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>36530.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>36530.625</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>36530.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>36530.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>36530.75</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>36530.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>36530.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>36530.875</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>36530.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>36530.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>36531</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>36531.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>36531.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>36531.125</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>36531.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>36531.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>36531.25</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>36531.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>36531.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>36531.375</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>36531.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>36531.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>36531.5</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>36531.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>36531.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>36531.625</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>36531.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>36531.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>36531.75</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>36531.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>36531.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>36531.875</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>36531.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>36531.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>36532</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>36532.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>36532.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>36532.125</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>36532.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>36532.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>36532.25</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>36532.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>36532.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>36532.375</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>36532.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>36532.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>36532.5</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>36532.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>36532.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>36532.625</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>36532.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>36532.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>36532.75</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>36532.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>36532.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>36532.875</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>36532.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>36532.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>36533</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>36533.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>36533.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>36533.125</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>36533.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>36533.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>36533.25</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>36533.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>36533.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>36533.375</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>36533.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>36533.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>36533.5</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>36533.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>36533.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>36533.625</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>36533.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>36533.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>36533.75</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>36533.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>36533.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>36533.875</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>36533.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>36533.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>36534</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>36534.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>36534.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>36534.125</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>36534.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>36534.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>36534.25</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>36534.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>36534.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>36534.375</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>36534.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>36534.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>36534.5</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>36534.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>36534.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>36534.625</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>36534.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>36534.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>36534.75</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>36534.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>36534.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>36534.875</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>36534.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>36534.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>36535</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>36535.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>36535.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>36535.125</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>36535.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>36535.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>36535.25</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>36535.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>36535.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>36535.375</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>36535.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>36535.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>36535.5</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>36535.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>36535.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>36535.625</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>36535.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>36535.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>36535.75</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>36535.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>36535.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>36535.875</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>36535.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>36535.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>36536</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>36536.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>36536.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>36536.125</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>36536.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>36536.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>36536.25</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>36536.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>36536.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>36536.375</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>36536.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>36536.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>36536.5</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>36536.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>36536.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>36536.625</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>36536.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>36536.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>36536.75</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>36536.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>36536.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>36536.875</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>36536.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>36536.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>36537</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>36537.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>36537.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>36537.125</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>36537.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>36537.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>36537.25</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>36537.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>36537.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>36537.375</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>36537.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>36537.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>36537.5</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>36537.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>36537.583333333343</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$280</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="279"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>227</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>247</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>231</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>192</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>227</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>229</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>188</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>227</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>191</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>186</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>182</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>227</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>211</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>264</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>294</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>183</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5AFE-4F0C-AAE2-642B32E44AE4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$280</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                      <c:ptCount val="279"/>
+                      <c:pt idx="0">
+                        <c:v>36526</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36526.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>36526.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>36526.125</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36526.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>36526.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36526.25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36526.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36526.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>36526.375</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>36526.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>36526.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36526.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36526.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36526.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>36526.625</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>36526.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>36526.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36526.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>36526.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>36526.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>36526.875</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>36526.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>36526.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>36527</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>36527.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>36527.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>36527.125</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>36527.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>36527.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>36527.25</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>36527.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>36527.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>36527.375</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>36527.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36527.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36527.5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>36527.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>36527.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>36527.625</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>36527.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>36527.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>36527.75</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>36527.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>36527.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>36527.875</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>36527.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>36527.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>36528</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>36528.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>36528.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>36528.125</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>36528.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>36528.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>36528.25</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>36528.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>36528.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>36528.375</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>36528.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>36528.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>36528.5</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>36528.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>36528.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>36528.625</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>36528.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>36528.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>36528.75</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>36528.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>36528.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>36528.875</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>36528.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>36528.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>36529</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>36529.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>36529.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>36529.125</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>36529.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>36529.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>36529.25</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>36529.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>36529.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>36529.375</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>36529.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>36529.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>36529.5</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>36529.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>36529.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>36529.625</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>36529.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>36529.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>36529.75</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>36529.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>36529.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>36529.875</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>36529.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>36529.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>36530</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>36530.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>36530.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>36530.125</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>36530.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>36530.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>36530.25</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>36530.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>36530.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>36530.375</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>36530.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>36530.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>36530.5</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>36530.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>36530.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>36530.625</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>36530.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>36530.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>36530.75</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>36530.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>36530.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>36530.875</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>36530.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>36530.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>36531</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>36531.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>36531.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>36531.125</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>36531.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>36531.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>36531.25</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>36531.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>36531.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>36531.375</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>36531.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>36531.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>36531.5</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>36531.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>36531.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>36531.625</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>36531.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>36531.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>36531.75</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>36531.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>36531.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>36531.875</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>36531.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>36531.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>36532</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>36532.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>36532.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>36532.125</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>36532.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>36532.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>36532.25</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>36532.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>36532.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>36532.375</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>36532.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>36532.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>36532.5</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>36532.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>36532.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>36532.625</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>36532.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>36532.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>36532.75</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>36532.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>36532.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>36532.875</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>36532.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>36532.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>36533</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>36533.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>36533.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>36533.125</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>36533.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>36533.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>36533.25</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>36533.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>36533.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>36533.375</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>36533.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>36533.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>36533.5</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>36533.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>36533.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>36533.625</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>36533.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>36533.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>36533.75</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>36533.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>36533.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>36533.875</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>36533.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>36533.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>36534</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>36534.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>36534.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>36534.125</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>36534.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>36534.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>36534.25</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>36534.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>36534.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>36534.375</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>36534.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>36534.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>36534.5</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>36534.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>36534.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>36534.625</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>36534.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>36534.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>36534.75</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>36534.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>36534.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>36534.875</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>36534.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>36534.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>36535</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>36535.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>36535.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>36535.125</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>36535.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>36535.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>36535.25</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>36535.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>36535.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>36535.375</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>36535.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>36535.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>36535.5</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>36535.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>36535.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>36535.625</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>36535.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>36535.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>36535.75</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>36535.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>36535.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>36535.875</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>36535.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>36535.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>36536</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>36536.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>36536.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>36536.125</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>36536.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>36536.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>36536.25</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>36536.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>36536.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>36536.375</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>36536.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>36536.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>36536.5</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>36536.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>36536.583333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>36536.625</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>36536.666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>36536.708333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>36536.75</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>36536.791666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>36536.833333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>36536.875</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>36536.916666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>36536.958333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>36537</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>36537.041666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>36537.083333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>36537.125</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>36537.166666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>36537.208333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>36537.25</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>36537.291666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>36537.333333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>36537.375</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>36537.416666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>36537.458333333343</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>36537.5</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>36537.541666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>36537.583333333343</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5AFE-4F0C-AAE2-642B32E44AE4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106871935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106870495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106870495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106871935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafikon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1592B21A-4F4B-ED5F-FDD6-25A97B12983D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,13 +5667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8785"/>
+  <dimension ref="A1:B8786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8761" workbookViewId="0">
+      <selection activeCell="B8786" sqref="B8786"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11743,121 +17019,193 @@
       <c r="A1418" s="2">
         <v>36585</v>
       </c>
+      <c r="B1418">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1419" s="2">
         <v>36585.041666666657</v>
       </c>
+      <c r="B1419">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1420" s="2">
         <v>36585.083333333343</v>
       </c>
+      <c r="B1420">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1421" s="2">
         <v>36585.125</v>
       </c>
+      <c r="B1421">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1422" s="2">
         <v>36585.166666666657</v>
       </c>
+      <c r="B1422">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1423" s="2">
         <v>36585.208333333343</v>
       </c>
+      <c r="B1423">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1424" s="2">
         <v>36585.25</v>
       </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1425" s="2">
         <v>36585.291666666657</v>
       </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1425">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1426" s="2">
         <v>36585.333333333343</v>
       </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1426">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1427" s="2">
         <v>36585.375</v>
       </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1427">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1428" s="2">
         <v>36585.416666666657</v>
       </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1428">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1429" s="2">
         <v>36585.458333333343</v>
       </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1429">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1430" s="2">
         <v>36585.5</v>
       </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1430">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1431" s="2">
         <v>36585.541666666657</v>
       </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1431">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1432" s="2">
         <v>36585.583333333343</v>
       </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1432">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1433" s="2">
         <v>36585.625</v>
       </c>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1433">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1434" s="2">
         <v>36585.666666666657</v>
       </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1434">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1435" s="2">
         <v>36585.708333333343</v>
       </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1435">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1436" s="2">
         <v>36585.75</v>
       </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1437" s="2">
         <v>36585.791666666657</v>
       </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1438" s="2">
         <v>36585.833333333343</v>
       </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1439" s="2">
         <v>36585.875</v>
       </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1440" s="2">
         <v>36585.916666666657</v>
+      </c>
+      <c r="B1440">
+        <v>0</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1441" s="2">
         <v>36585.958333333343</v>
       </c>
+      <c r="B1441">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1442" s="2">
@@ -70611,300 +75959,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8786" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010008E7BE7B0CAABA43AED742E598976A4A" ma:contentTypeVersion="19" ma:contentTypeDescription="Ustvari nov dokument." ma:contentTypeScope="" ma:versionID="0bdb3e7dd2ec873778367a96bf274037">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7729c1d4-cef5-4d42-90b0-1acbf86e465b" xmlns:ns3="df635b4a-7af1-4a5e-a23a-fe7c9242efac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dba111026cf164cdef25e61245610361" ns2:_="" ns3:_="">
-    <xsd:import namespace="7729c1d4-cef5-4d42-90b0-1acbf86e465b"/>
-    <xsd:import namespace="df635b4a-7af1-4a5e-a23a-fe7c9242efac"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7729c1d4-cef5-4d42-90b0-1acbf86e465b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Oznake slike" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b5c7bf33-a257-4e00-9403-561934745116" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="df635b4a-7af1-4a5e-a23a-fe7c9242efac" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="V skupni rabi z" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="V skupni rabi s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3aa6c207-9ef6-45d5-9387-188a4329c37f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="df635b4a-7af1-4a5e-a23a-fe7c9242efac">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Vrsta vsebine"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Naslov"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="df635b4a-7af1-4a5e-a23a-fe7c9242efac" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7729c1d4-cef5-4d42-90b0-1acbf86e465b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{507299B1-0CE4-4046-B465-1152B42859A1}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A90DC08-B66D-4B66-B605-F447E430E394}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01396A51-7B76-40F2-B1CE-4E4699BEF5FA}"/>
 </file>
--- a/profili/osvetljitev_celje.xlsx
+++ b/profili/osvetljitev_celje.xlsx
@@ -75966,4 +75966,297 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010008E7BE7B0CAABA43AED742E598976A4A" ma:contentTypeVersion="19" ma:contentTypeDescription="Ustvari nov dokument." ma:contentTypeScope="" ma:versionID="0bdb3e7dd2ec873778367a96bf274037">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7729c1d4-cef5-4d42-90b0-1acbf86e465b" xmlns:ns3="df635b4a-7af1-4a5e-a23a-fe7c9242efac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dba111026cf164cdef25e61245610361" ns2:_="" ns3:_="">
+    <xsd:import namespace="7729c1d4-cef5-4d42-90b0-1acbf86e465b"/>
+    <xsd:import namespace="df635b4a-7af1-4a5e-a23a-fe7c9242efac"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7729c1d4-cef5-4d42-90b0-1acbf86e465b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Oznake slike" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b5c7bf33-a257-4e00-9403-561934745116" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="df635b4a-7af1-4a5e-a23a-fe7c9242efac" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="V skupni rabi z" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="V skupni rabi s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3aa6c207-9ef6-45d5-9387-188a4329c37f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="df635b4a-7af1-4a5e-a23a-fe7c9242efac">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Vrsta vsebine"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Naslov"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="df635b4a-7af1-4a5e-a23a-fe7c9242efac" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7729c1d4-cef5-4d42-90b0-1acbf86e465b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C22E93C-B8D6-4346-A7C0-67D7D639E2DC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87001AE5-E66A-4D79-B6FF-76F3ACE50336}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D04F77D-2262-4CE8-990A-648BB5DB9D6C}"/>
 </file>